--- a/Excel Working.xlsx
+++ b/Excel Working.xlsx
@@ -9,17 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly budget" sheetId="1" r:id="rId1"/>
     <sheet name="Sales Target" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Employee Details" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sales Target'!$B$6:$F$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="75">
   <si>
     <t>Bills</t>
   </si>
@@ -137,18 +140,138 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Employee Details</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Joining Date</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Monthly Salary</t>
+  </si>
+  <si>
+    <t>Job Status</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Agatha</t>
+  </si>
+  <si>
+    <t>Lana</t>
+  </si>
+  <si>
+    <t>Heather</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Caitlyn</t>
+  </si>
+  <si>
+    <t>Gibbs</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Joana</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sales </t>
+  </si>
+  <si>
+    <t>legal</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Bussiness Development</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sum of Monthly Salary</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="8" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="172" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="174" formatCode="&quot;₹&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +333,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -219,7 +379,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -227,37 +387,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF71B8FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Heading 2 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -288,7 +489,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -395,6 +595,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FD25-4C4F-927D-415E5DDD04B2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -415,6 +620,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FD25-4C4F-927D-415E5DDD04B2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -435,6 +645,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FD25-4C4F-927D-415E5DDD04B2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -455,6 +670,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-FD25-4C4F-927D-415E5DDD04B2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -475,6 +695,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-FD25-4C4F-927D-415E5DDD04B2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -495,6 +720,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-FD25-4C4F-927D-415E5DDD04B2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -564,9 +794,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -680,6 +908,11 @@
                     </a:effectLst>
                     <a:sp3d/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000D-FD25-4C4F-927D-415E5DDD04B2}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="1"/>
@@ -700,6 +933,11 @@
                     </a:effectLst>
                     <a:sp3d/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000000F-FD25-4C4F-927D-415E5DDD04B2}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="2"/>
@@ -720,6 +958,11 @@
                     </a:effectLst>
                     <a:sp3d/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000011-FD25-4C4F-927D-415E5DDD04B2}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="3"/>
@@ -740,6 +983,11 @@
                     </a:effectLst>
                     <a:sp3d/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000013-FD25-4C4F-927D-415E5DDD04B2}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="4"/>
@@ -760,6 +1008,11 @@
                     </a:effectLst>
                     <a:sp3d/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000015-FD25-4C4F-927D-415E5DDD04B2}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="5"/>
@@ -780,6 +1033,11 @@
                     </a:effectLst>
                     <a:sp3d/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000017-FD25-4C4F-927D-415E5DDD04B2}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dLbls>
                   <c:spPr>
@@ -849,9 +1107,7 @@
                     </c:spPr>
                   </c:leaderLines>
                   <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
-                    </c:ext>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                   </c:extLst>
                 </c:dLbls>
                 <c:cat>
@@ -932,7 +1188,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Monthly budget'!$F$5</c15:sqref>
@@ -966,6 +1222,11 @@
                     </a:effectLst>
                     <a:sp3d/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000019-FD25-4C4F-927D-415E5DDD04B2}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="1"/>
@@ -986,6 +1247,11 @@
                     </a:effectLst>
                     <a:sp3d/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000001B-FD25-4C4F-927D-415E5DDD04B2}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="2"/>
@@ -1006,6 +1272,11 @@
                     </a:effectLst>
                     <a:sp3d/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000001D-FD25-4C4F-927D-415E5DDD04B2}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="3"/>
@@ -1026,6 +1297,11 @@
                     </a:effectLst>
                     <a:sp3d/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000001F-FD25-4C4F-927D-415E5DDD04B2}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="4"/>
@@ -1046,6 +1322,11 @@
                     </a:effectLst>
                     <a:sp3d/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000021-FD25-4C4F-927D-415E5DDD04B2}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="5"/>
@@ -1066,6 +1347,11 @@
                     </a:effectLst>
                     <a:sp3d/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000023-FD25-4C4F-927D-415E5DDD04B2}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dLbls>
                   <c:spPr>
@@ -1134,15 +1420,13 @@
                       <a:effectLst/>
                     </c:spPr>
                   </c:leaderLines>
-                  <c:extLst>
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
-                    </c:ext>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                   </c:extLst>
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Monthly budget'!$D$6:$D$11</c15:sqref>
@@ -1174,7 +1458,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Monthly budget'!$F$6:$F$11</c15:sqref>
@@ -1205,7 +1489,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-19F9-4F3B-8DB3-86869437FAA2}"/>
                   </c:ext>
@@ -1218,7 +1502,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Monthly budget'!$G$5</c15:sqref>
@@ -1252,6 +1536,11 @@
                     </a:effectLst>
                     <a:sp3d/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000025-FD25-4C4F-927D-415E5DDD04B2}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="1"/>
@@ -1272,6 +1561,11 @@
                     </a:effectLst>
                     <a:sp3d/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000027-FD25-4C4F-927D-415E5DDD04B2}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="2"/>
@@ -1292,6 +1586,11 @@
                     </a:effectLst>
                     <a:sp3d/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{00000029-FD25-4C4F-927D-415E5DDD04B2}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="3"/>
@@ -1312,6 +1611,11 @@
                     </a:effectLst>
                     <a:sp3d/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000002B-FD25-4C4F-927D-415E5DDD04B2}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="4"/>
@@ -1332,6 +1636,11 @@
                     </a:effectLst>
                     <a:sp3d/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000002D-FD25-4C4F-927D-415E5DDD04B2}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dPt>
                   <c:idx val="5"/>
@@ -1352,6 +1661,11 @@
                     </a:effectLst>
                     <a:sp3d/>
                   </c:spPr>
+                  <c:extLst>
+                    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                      <c16:uniqueId val="{0000002F-FD25-4C4F-927D-415E5DDD04B2}"/>
+                    </c:ext>
+                  </c:extLst>
                 </c:dPt>
                 <c:dLbls>
                   <c:spPr>
@@ -1420,13 +1734,13 @@
                       <a:effectLst/>
                     </c:spPr>
                   </c:leaderLines>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                   </c:extLst>
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Monthly budget'!$D$6:$D$11</c15:sqref>
@@ -1458,7 +1772,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'Monthly budget'!$G$6:$G$11</c15:sqref>
@@ -1489,7 +1803,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-19F9-4F3B-8DB3-86869437FAA2}"/>
                   </c:ext>
@@ -1509,7 +1823,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1597,6 +1910,551 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Excel Working.xlsx]Employee Details!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Employee Details'!$J$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Employee Details'!$I$22:$I$50</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="21"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Heather</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Lana</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Joana</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Joey</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>John</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Leonardo</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Mark</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Matthew</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Alan</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Ross</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Anderson</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Caitlyn</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>David</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Tony</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Agatha</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Ben</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Brian</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Gibbs</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Michael</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Jack</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Jacob</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Accounting</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Bussiness Development</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Human Resources</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>legal</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Retail</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>sales </c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Support</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Employee Details'!$J$22:$J$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>312500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>312500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>583000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>583000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>492000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>492000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>345000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>278500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>345000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>278500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>345000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>345000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>345000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>278500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>278500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>250000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F9D-4748-8137-0758AA917699}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="2141155360"/>
+        <c:axId val="178582928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2141155360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="178582928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="178582928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2141155360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69745319335083122"/>
+          <c:y val="0.21968431029454646"/>
+          <c:w val="9.3096584529326495E-2"/>
+          <c:h val="7.135159016514156E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1633,6 +2491,33 @@
   <cs:variation>
     <a:lumMod val="50000"/>
     <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -2238,6 +3123,502 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2271,6 +3652,443 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238397</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>6803</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="45314.357895601854" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="21">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A5:F26" sheet="Employee Details"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems count="21">
+        <s v="Mark"/>
+        <s v="Brian"/>
+        <s v="Alan"/>
+        <s v="Tony"/>
+        <s v="Agatha"/>
+        <s v="Lana"/>
+        <s v="Heather"/>
+        <s v="Ben"/>
+        <s v="Caitlyn"/>
+        <s v="Gibbs"/>
+        <s v="Anderson"/>
+        <s v="Michael"/>
+        <s v="David"/>
+        <s v="Jacob"/>
+        <s v="John"/>
+        <s v="Leonardo"/>
+        <s v="Matthew"/>
+        <s v="Joana"/>
+        <s v="Ross"/>
+        <s v="Joey"/>
+        <s v="Jack"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Joining Date" numFmtId="170">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-12-31T00:00:00" maxDate="2022-08-05T00:00:00"/>
+    </cacheField>
+    <cacheField name="Email Address" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Department" numFmtId="0">
+      <sharedItems count="7">
+        <s v="Human Resources"/>
+        <s v="sales "/>
+        <s v="legal"/>
+        <s v="Retail"/>
+        <s v="Accounting"/>
+        <s v="Support"/>
+        <s v="Bussiness Development"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Monthly Salary" numFmtId="174">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="250000" maxValue="583000"/>
+    </cacheField>
+    <cacheField name="Job Status" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="21">
+  <r>
+    <x v="0"/>
+    <d v="2021-12-31T00:00:00"/>
+    <s v="Mark@dummymail.com"/>
+    <x v="0"/>
+    <n v="583000"/>
+    <s v="Permanent"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <d v="2021-12-31T00:00:00"/>
+    <s v="Brian@dummymail.com"/>
+    <x v="1"/>
+    <n v="345000"/>
+    <s v="Permanent"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <d v="2022-01-14T00:00:00"/>
+    <s v="Alan@dummymail.com"/>
+    <x v="2"/>
+    <n v="492000"/>
+    <s v="Permanent"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <d v="2022-01-14T00:00:00"/>
+    <s v="Tony@dummymail.com"/>
+    <x v="3"/>
+    <n v="278500"/>
+    <s v="Permanent"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <d v="2022-02-01T00:00:00"/>
+    <s v="Agatha@dummymail.com"/>
+    <x v="1"/>
+    <n v="345000"/>
+    <s v="Permanent"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <d v="2022-02-01T00:00:00"/>
+    <s v="Lana@dummymail.com"/>
+    <x v="4"/>
+    <n v="312500"/>
+    <s v="Permanent"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <d v="2022-08-04T00:00:00"/>
+    <s v="Heather@dummymail.com"/>
+    <x v="4"/>
+    <n v="312500"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="7"/>
+    <d v="2022-08-04T00:00:00"/>
+    <s v="Ben@dummymail.com"/>
+    <x v="1"/>
+    <n v="345000"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <d v="2022-03-01T00:00:00"/>
+    <s v="Caitlyn@dummymail.com"/>
+    <x v="3"/>
+    <n v="278500"/>
+    <s v="Permanent"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <d v="2022-03-01T00:00:00"/>
+    <s v="Gibbs@dummymail.com"/>
+    <x v="1"/>
+    <n v="278500"/>
+    <s v="Permanent"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <d v="2022-03-01T00:00:00"/>
+    <s v="Anderson@dummymail.com"/>
+    <x v="3"/>
+    <n v="345000"/>
+    <s v="Permanent"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <d v="2022-03-01T00:00:00"/>
+    <s v="Michael@dummymail.com"/>
+    <x v="1"/>
+    <n v="278500"/>
+    <s v="Permanent"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <d v="2022-03-15T00:00:00"/>
+    <s v="David@dummymail.com"/>
+    <x v="3"/>
+    <n v="345000"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="13"/>
+    <d v="2022-03-15T00:00:00"/>
+    <s v="Jacob@dummymail.com"/>
+    <x v="5"/>
+    <n v="250000"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="14"/>
+    <d v="2022-04-01T00:00:00"/>
+    <s v="John@dummymail.com"/>
+    <x v="6"/>
+    <n v="310000"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <d v="2022-04-01T00:00:00"/>
+    <s v="Leonardo@dummymail.com"/>
+    <x v="6"/>
+    <n v="310000"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <d v="2022-04-17T00:00:00"/>
+    <s v="Matthew@dummymail.com"/>
+    <x v="0"/>
+    <n v="583000"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="17"/>
+    <d v="2022-06-01T00:00:00"/>
+    <s v="Joana@dummymail.com"/>
+    <x v="6"/>
+    <n v="310000"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <d v="2022-07-02T00:00:00"/>
+    <s v="Ross@dummymail.com"/>
+    <x v="2"/>
+    <n v="492000"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="19"/>
+    <d v="2022-07-15T00:00:00"/>
+    <s v="Joey@dummymail.com"/>
+    <x v="6"/>
+    <n v="310000"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="20"/>
+    <d v="2022-01-03T00:00:00"/>
+    <s v="Jack@dummymail.com"/>
+    <x v="5"/>
+    <n v="250000"/>
+    <s v="Permanent"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="I21:J50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="22">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="20"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="19"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="15"/>
+        <item x="0"/>
+        <item x="16"/>
+        <item x="11"/>
+        <item x="18"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="170" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="4"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="174" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="29">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Monthly Salary" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2552,14 +4370,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="5" spans="4:8" ht="21" x14ac:dyDescent="0.4">
       <c r="D5" s="2" t="s">
@@ -2690,202 +4508,202 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="8"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E20" s="7"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="7"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="7"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="7"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="7"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="7"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="7"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="7"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E28" s="7"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E29" s="7"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="7"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="7"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E32" s="7"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="7"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="7"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="7"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="7"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="7"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="7"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="7"/>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="7"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="7"/>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E42" s="7"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E43" s="7"/>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E44" s="7"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E45" s="7"/>
+      <c r="E45" s="6"/>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E46" s="7"/>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E47" s="7"/>
+      <c r="E47" s="6"/>
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E48" s="7"/>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E49" s="7"/>
+      <c r="E49" s="6"/>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E50" s="7"/>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E51" s="7"/>
+      <c r="E51" s="6"/>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E52" s="7"/>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E53" s="7"/>
+      <c r="E53" s="6"/>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E54" s="7"/>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E55" s="7"/>
+      <c r="E55" s="6"/>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E56" s="7"/>
+      <c r="E56" s="6"/>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E57" s="7"/>
+      <c r="E57" s="6"/>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E58" s="7"/>
+      <c r="E58" s="6"/>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E59" s="7"/>
+      <c r="E59" s="6"/>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E60" s="7"/>
+      <c r="E60" s="6"/>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E61" s="7"/>
+      <c r="E61" s="6"/>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E62" s="7"/>
+      <c r="E62" s="6"/>
     </row>
     <row r="63" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E63" s="7"/>
+      <c r="E63" s="6"/>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E64" s="7"/>
+      <c r="E64" s="6"/>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E65" s="7"/>
+      <c r="E65" s="6"/>
     </row>
     <row r="66" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E66" s="7"/>
+      <c r="E66" s="6"/>
     </row>
     <row r="67" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E67" s="7"/>
+      <c r="E67" s="6"/>
     </row>
     <row r="68" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E68" s="7"/>
+      <c r="E68" s="6"/>
     </row>
     <row r="69" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E69" s="7"/>
+      <c r="E69" s="6"/>
     </row>
     <row r="70" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E70" s="7"/>
+      <c r="E70" s="6"/>
     </row>
     <row r="71" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E71" s="7"/>
+      <c r="E71" s="6"/>
     </row>
     <row r="72" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E72" s="7"/>
+      <c r="E72" s="6"/>
     </row>
     <row r="73" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E73" s="7"/>
+      <c r="E73" s="6"/>
     </row>
     <row r="74" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E74" s="7"/>
+      <c r="E74" s="6"/>
     </row>
     <row r="75" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E75" s="7"/>
+      <c r="E75" s="6"/>
     </row>
     <row r="76" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E76" s="7"/>
+      <c r="E76" s="6"/>
     </row>
     <row r="77" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E77" s="7"/>
+      <c r="E77" s="6"/>
     </row>
     <row r="78" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E78" s="7"/>
+      <c r="E78" s="6"/>
     </row>
     <row r="79" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E79" s="7"/>
+      <c r="E79" s="6"/>
     </row>
     <row r="80" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E80" s="7"/>
+      <c r="E80" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2944,7 +4762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2973,7 +4791,7 @@
       <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2990,7 +4808,7 @@
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>1400000</v>
       </c>
     </row>
@@ -3003,7 +4821,7 @@
       <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>1550000</v>
       </c>
     </row>
@@ -3016,7 +4834,7 @@
       <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>1865000</v>
       </c>
     </row>
@@ -3029,7 +4847,7 @@
       <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>2256000</v>
       </c>
     </row>
@@ -3042,7 +4860,7 @@
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>2500000</v>
       </c>
     </row>
@@ -3055,7 +4873,7 @@
       <c r="E12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>2860000</v>
       </c>
     </row>
@@ -3066,7 +4884,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <f>SUBTOTAL(9,F7:F12)</f>
         <v>12431000</v>
       </c>
@@ -3084,7 +4902,7 @@
       <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>1000000</v>
       </c>
     </row>
@@ -3097,7 +4915,7 @@
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>1398000</v>
       </c>
     </row>
@@ -3110,7 +4928,7 @@
       <c r="E16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>1852000</v>
       </c>
     </row>
@@ -3123,7 +4941,7 @@
       <c r="E17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>2147000</v>
       </c>
     </row>
@@ -3136,7 +4954,7 @@
       <c r="E18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>2286000</v>
       </c>
     </row>
@@ -3149,7 +4967,7 @@
       <c r="E19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>2597500</v>
       </c>
     </row>
@@ -3160,7 +4978,7 @@
         <v>31</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <f>SUBTOTAL(9,F14:F19)</f>
         <v>11280500</v>
       </c>
@@ -3178,7 +4996,7 @@
       <c r="E21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>1189000</v>
       </c>
     </row>
@@ -3191,7 +5009,7 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>1368700</v>
       </c>
     </row>
@@ -3204,7 +5022,7 @@
       <c r="E23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>1567800</v>
       </c>
     </row>
@@ -3217,7 +5035,7 @@
       <c r="E24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>1945700</v>
       </c>
     </row>
@@ -3230,7 +5048,7 @@
       <c r="E25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <v>2548200</v>
       </c>
     </row>
@@ -3243,7 +5061,7 @@
       <c r="E26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>3056200</v>
       </c>
     </row>
@@ -3254,7 +5072,7 @@
         <v>32</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <f>SUBTOTAL(9,F21:F26)</f>
         <v>11675600</v>
       </c>
@@ -3272,7 +5090,7 @@
       <c r="E28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <v>1789220</v>
       </c>
     </row>
@@ -3285,7 +5103,7 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <v>2456800</v>
       </c>
     </row>
@@ -3298,7 +5116,7 @@
       <c r="E30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <v>2798400</v>
       </c>
     </row>
@@ -3311,7 +5129,7 @@
       <c r="E31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <v>3086100</v>
       </c>
     </row>
@@ -3324,7 +5142,7 @@
       <c r="E32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="9">
         <v>3468000</v>
       </c>
     </row>
@@ -3337,7 +5155,7 @@
       <c r="E33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="9">
         <v>3697500</v>
       </c>
     </row>
@@ -3348,7 +5166,7 @@
         <v>33</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="10">
+      <c r="F34" s="9">
         <f>SUBTOTAL(9,F28:F33)</f>
         <v>17296020</v>
       </c>
@@ -3366,7 +5184,7 @@
       <c r="E35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="9">
         <v>1545600</v>
       </c>
     </row>
@@ -3379,7 +5197,7 @@
       <c r="E36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="9">
         <v>1879200</v>
       </c>
     </row>
@@ -3392,7 +5210,7 @@
       <c r="E37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="9">
         <v>2483400</v>
       </c>
     </row>
@@ -3405,7 +5223,7 @@
       <c r="E38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="9">
         <v>2697100</v>
       </c>
     </row>
@@ -3418,7 +5236,7 @@
       <c r="E39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="9">
         <v>3065200</v>
       </c>
     </row>
@@ -3431,7 +5249,7 @@
       <c r="E40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="9">
         <v>3596100</v>
       </c>
     </row>
@@ -3442,7 +5260,7 @@
         <v>34</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="10">
+      <c r="F41" s="9">
         <f>SUBTOTAL(9,F35:F40)</f>
         <v>15266600</v>
       </c>
@@ -3454,7 +5272,7 @@
         <v>35</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="10">
+      <c r="F42" s="9">
         <f>SUBTOTAL(9,F7:F40)</f>
         <v>67949720</v>
       </c>
@@ -3470,12 +5288,746 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:J50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="13" max="17" width="7.44140625" customWidth="1"/>
+    <col min="18" max="18" width="7.88671875" customWidth="1"/>
+    <col min="19" max="24" width="7.44140625" customWidth="1"/>
+    <col min="25" max="25" width="9" customWidth="1"/>
+    <col min="26" max="26" width="7.44140625" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" customWidth="1"/>
+    <col min="28" max="28" width="7.77734375" customWidth="1"/>
+    <col min="29" max="30" width="7.44140625" customWidth="1"/>
+    <col min="31" max="31" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="17">
+        <v>44561</v>
+      </c>
+      <c r="C6" s="16" t="str">
+        <f>A6&amp;"@dummymail.com"</f>
+        <v>Mark@dummymail.com</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="21">
+        <v>583000</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="17">
+        <v>44561</v>
+      </c>
+      <c r="C7" s="16" t="str">
+        <f t="shared" ref="C7:C26" si="0">A7&amp;"@dummymail.com"</f>
+        <v>Brian@dummymail.com</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="21">
+        <v>345000</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="17">
+        <v>44575</v>
+      </c>
+      <c r="C8" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Alan@dummymail.com</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="21">
+        <v>492000</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="17">
+        <v>44575</v>
+      </c>
+      <c r="C9" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Tony@dummymail.com</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="21">
+        <v>278500</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="17">
+        <v>44593</v>
+      </c>
+      <c r="C10" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Agatha@dummymail.com</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="21">
+        <v>345000</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="17">
+        <v>44593</v>
+      </c>
+      <c r="C11" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Lana@dummymail.com</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="21">
+        <v>312500</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="17">
+        <v>44777</v>
+      </c>
+      <c r="C12" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Heather@dummymail.com</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="21">
+        <v>312500</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="17">
+        <v>44777</v>
+      </c>
+      <c r="C13" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Ben@dummymail.com</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="21">
+        <v>345000</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="17">
+        <v>44621</v>
+      </c>
+      <c r="C14" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Caitlyn@dummymail.com</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="21">
+        <v>278500</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="17">
+        <v>44621</v>
+      </c>
+      <c r="C15" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Gibbs@dummymail.com</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="21">
+        <v>278500</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="17">
+        <v>44621</v>
+      </c>
+      <c r="C16" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Anderson@dummymail.com</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="21">
+        <v>345000</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="17">
+        <v>44621</v>
+      </c>
+      <c r="C17" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Michael@dummymail.com</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="21">
+        <v>278500</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="17">
+        <v>44635</v>
+      </c>
+      <c r="C18" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>David@dummymail.com</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="21">
+        <v>345000</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="17">
+        <v>44635</v>
+      </c>
+      <c r="C19" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Jacob@dummymail.com</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="21">
+        <v>250000</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="17">
+        <v>44652</v>
+      </c>
+      <c r="C20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>John@dummymail.com</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="21">
+        <v>310000</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="17">
+        <v>44652</v>
+      </c>
+      <c r="C21" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Leonardo@dummymail.com</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="21">
+        <v>310000</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="17">
+        <v>44668</v>
+      </c>
+      <c r="C22" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Matthew@dummymail.com</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="21">
+        <v>583000</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="23">
+        <v>625000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="17">
+        <v>44713</v>
+      </c>
+      <c r="C23" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Joana@dummymail.com</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="21">
+        <v>310000</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="23">
+        <v>312500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="17">
+        <v>44744</v>
+      </c>
+      <c r="C24" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Ross@dummymail.com</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="21">
+        <v>492000</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="23">
+        <v>312500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="17">
+        <v>44757</v>
+      </c>
+      <c r="C25" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Joey@dummymail.com</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="21">
+        <v>310000</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="23">
+        <v>1240000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="17">
+        <v>44564</v>
+      </c>
+      <c r="C26" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Jack@dummymail.com</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="21">
+        <v>250000</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="23">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I27" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="23">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I28" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" s="23">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I29" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="23">
+        <v>310000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I30" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" s="23">
+        <v>1166000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I31" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="23">
+        <v>583000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I32" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" s="23">
+        <v>583000</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I33" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="23">
+        <v>984000</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I34" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" s="23">
+        <v>492000</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I35" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" s="23">
+        <v>492000</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I36" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" s="23">
+        <v>1247000</v>
+      </c>
+    </row>
+    <row r="37" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I37" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J37" s="23">
+        <v>345000</v>
+      </c>
+    </row>
+    <row r="38" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I38" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" s="23">
+        <v>278500</v>
+      </c>
+    </row>
+    <row r="39" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I39" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" s="23">
+        <v>345000</v>
+      </c>
+    </row>
+    <row r="40" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I40" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J40" s="23">
+        <v>278500</v>
+      </c>
+    </row>
+    <row r="41" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I41" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J41" s="23">
+        <v>1592000</v>
+      </c>
+    </row>
+    <row r="42" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I42" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J42" s="23">
+        <v>345000</v>
+      </c>
+    </row>
+    <row r="43" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I43" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="J43" s="23">
+        <v>345000</v>
+      </c>
+    </row>
+    <row r="44" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I44" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" s="23">
+        <v>345000</v>
+      </c>
+    </row>
+    <row r="45" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I45" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" s="23">
+        <v>278500</v>
+      </c>
+    </row>
+    <row r="46" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I46" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="J46" s="23">
+        <v>278500</v>
+      </c>
+    </row>
+    <row r="47" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I47" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J47" s="23">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="48" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I48" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J48" s="23">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I49" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49" s="23">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I50" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J50" s="23">
+        <v>7354000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>